--- a/query.xlsx
+++ b/query.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ilmakfs3ws03vm.blm.doi.net\content\aicc\sitreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\W$\aicc\sitreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="SIT Query" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="850">
   <si>
     <t>RECORDNUMBER</t>
   </si>
@@ -631,6 +630,9 @@
     <t>K1PM</t>
   </si>
   <si>
+    <t>732185</t>
+  </si>
+  <si>
     <t>184</t>
   </si>
   <si>
@@ -874,6 +876,9 @@
     <t>Sullivan Creek</t>
   </si>
   <si>
+    <t>Modified</t>
+  </si>
+  <si>
     <t>K1JS</t>
   </si>
   <si>
@@ -910,6 +915,9 @@
     <t>K1JP</t>
   </si>
   <si>
+    <t>PNK1JP</t>
+  </si>
+  <si>
     <t>704161</t>
   </si>
   <si>
@@ -973,9 +981,6 @@
     <t>Spruce Creek</t>
   </si>
   <si>
-    <t>Modified</t>
-  </si>
-  <si>
     <t>K1HU</t>
   </si>
   <si>
@@ -2563,7 +2568,7 @@
     <t>KU13</t>
   </si>
   <si>
-    <t xml:space="preserve">185 now contains all of the acreage. </t>
+    <t>{879.3}</t>
   </si>
 </sst>
 </file>
@@ -2586,31 +2591,26 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2731,8 +2731,8 @@
     <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3040,8 +3040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="A2:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,8 +3058,7 @@
     <col min="17" max="17" width="26.85546875" customWidth="1"/>
     <col min="18" max="18" width="25.85546875" customWidth="1"/>
     <col min="19" max="19" width="19" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="35.5703125" customWidth="1"/>
+    <col min="20" max="21" width="14" customWidth="1"/>
     <col min="22" max="22" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3399,7 +3398,7 @@
         <v>42896.701446759304</v>
       </c>
       <c r="K6" s="3">
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>55</v>
@@ -3413,8 +3412,11 @@
       <c r="O6" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="P6" s="4">
+        <v>42897.678483796299</v>
+      </c>
       <c r="R6" s="3">
-        <v>112510</v>
+        <v>147049</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>51</v>
@@ -3561,7 +3563,7 @@
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3">
         <v>64.324166700000006</v>
@@ -3593,8 +3595,11 @@
       <c r="O9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="P9" s="4">
+        <v>42897.738819444399</v>
+      </c>
       <c r="R9" s="3">
-        <v>134022</v>
+        <v>222644</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>77</v>
@@ -4405,13 +4410,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F23" s="3">
-        <v>64.894472199999996</v>
+        <v>64.894467000000006</v>
       </c>
       <c r="G23" s="3">
-        <v>-147.6225278</v>
+        <v>-147.62254999999999</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -5314,10 +5319,10 @@
         <v>191</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F38" s="3">
-        <v>62.502861099999997</v>
+        <v>62.502867000000002</v>
       </c>
       <c r="G38" s="3">
         <v>-148.71449999999999</v>
@@ -5332,7 +5337,7 @@
         <v>42892.746817129599</v>
       </c>
       <c r="K38" s="3">
-        <v>470.8</v>
+        <v>488</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>29</v>
@@ -5521,7 +5526,7 @@
         <v>31</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -5538,16 +5543,16 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
@@ -5559,10 +5564,10 @@
         <v>-146.30066669999999</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J42" s="4">
         <v>42892.763749999998</v>
@@ -5574,7 +5579,7 @@
         <v>55</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>31</v>
@@ -5597,10 +5602,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>24</v>
@@ -5633,7 +5638,7 @@
         <v>29</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>31</v>
@@ -5656,10 +5661,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>24</v>
@@ -5680,7 +5685,7 @@
         <v>80</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J44" s="4">
         <v>42892.717291666697</v>
@@ -5692,7 +5697,7 @@
         <v>29</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>31</v>
@@ -5715,10 +5720,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>24</v>
@@ -5744,20 +5749,20 @@
       <c r="J45" s="4">
         <v>42892.715138888903</v>
       </c>
-      <c r="K45" s="3">
-        <v>-879.3</v>
+      <c r="K45" s="5" t="s">
+        <v>849</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -5768,8 +5773,8 @@
       <c r="T45" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="U45" s="5" t="s">
-        <v>847</v>
+      <c r="U45" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="V45" s="4">
         <v>42894.630671296298</v>
@@ -5777,10 +5782,10 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>24</v>
@@ -5801,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J46" s="4">
         <v>42892.684699074103</v>
@@ -5813,7 +5818,7 @@
         <v>29</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>31</v>
@@ -5836,10 +5841,10 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>24</v>
@@ -5848,7 +5853,7 @@
         <v>25</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F47" s="3">
         <v>63.435000000000002</v>
@@ -5872,7 +5877,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>31</v>
@@ -5895,10 +5900,10 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>24</v>
@@ -5931,7 +5936,7 @@
         <v>29</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>31</v>
@@ -5954,10 +5959,10 @@
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>24</v>
@@ -5978,7 +5983,7 @@
         <v>80</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J49" s="4">
         <v>42892.643379629597</v>
@@ -5990,7 +5995,7 @@
         <v>29</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>31</v>
@@ -6013,10 +6018,10 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>24</v>
@@ -6049,7 +6054,7 @@
         <v>29</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>31</v>
@@ -6072,10 +6077,10 @@
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>24</v>
@@ -6108,10 +6113,10 @@
         <v>29</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>31</v>
@@ -6131,10 +6136,10 @@
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>34</v>
@@ -6167,13 +6172,13 @@
         <v>29</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R52" s="3">
         <v>10758</v>
@@ -6190,10 +6195,10 @@
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>34</v>
@@ -6202,10 +6207,10 @@
         <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F53" s="3">
-        <v>61.195666699999997</v>
+        <v>61.195667</v>
       </c>
       <c r="G53" s="3">
         <v>-161.69200000000001</v>
@@ -6226,13 +6231,13 @@
         <v>29</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="R53" s="3">
         <v>0</v>
@@ -6249,10 +6254,10 @@
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>34</v>
@@ -6261,13 +6266,13 @@
         <v>145</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F54" s="3">
-        <v>62.614833400000002</v>
+        <v>62.614832999999997</v>
       </c>
       <c r="G54" s="3">
-        <v>-155.4843333</v>
+        <v>-155.48433299999999</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>137</v>
@@ -6285,16 +6290,22 @@
         <v>29</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="P54" s="4">
+        <v>42897.3526851852</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>42897.352361111101</v>
       </c>
       <c r="R54" s="3">
-        <v>75212</v>
+        <v>98480</v>
       </c>
       <c r="S54" s="2" t="s">
         <v>77</v>
@@ -6308,10 +6319,10 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>34</v>
@@ -6350,7 +6361,7 @@
         <v>31</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R55" s="3">
         <v>4604</v>
@@ -6367,10 +6378,10 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>34</v>
@@ -6409,7 +6420,7 @@
         <v>31</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="R56" s="3">
         <v>4604</v>
@@ -6426,10 +6437,10 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>34</v>
@@ -6468,7 +6479,7 @@
         <v>31</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="R57" s="3">
         <v>4604</v>
@@ -6485,10 +6496,10 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>34</v>
@@ -6509,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J58" s="4">
         <v>42891.815694444398</v>
@@ -6521,13 +6532,13 @@
         <v>37</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P58" s="4">
         <v>42891.815972222197</v>
@@ -6547,10 +6558,10 @@
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>34</v>
@@ -6571,7 +6582,7 @@
         <v>109</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J59" s="4">
         <v>42891.797511574099</v>
@@ -6583,13 +6594,13 @@
         <v>29</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P59" s="4">
         <v>42893.356562499997</v>
@@ -6612,10 +6623,10 @@
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>34</v>
@@ -6654,7 +6665,7 @@
         <v>31</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P60" s="4">
         <v>42891.721851851798</v>
@@ -6677,10 +6688,10 @@
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>34</v>
@@ -6719,7 +6730,7 @@
         <v>31</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P61" s="4">
         <v>42891.5453935185</v>
@@ -6742,10 +6753,10 @@
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>34</v>
@@ -6754,13 +6765,13 @@
         <v>145</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F62" s="3">
-        <v>62.468167000000001</v>
+        <v>62.468166699999998</v>
       </c>
       <c r="G62" s="3">
-        <v>-157.64295000000001</v>
+        <v>-157.6429444</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>27</v>
@@ -6778,16 +6789,16 @@
         <v>29</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="R62" s="3">
-        <v>4292</v>
+        <v>63618</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>77</v>
@@ -6801,10 +6812,10 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>34</v>
@@ -6813,13 +6824,13 @@
         <v>145</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="F63" s="3">
-        <v>62.758666699999999</v>
+        <v>62.758667000000003</v>
       </c>
       <c r="G63" s="3">
-        <v>-154.29366669999999</v>
+        <v>-154.293667</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>137</v>
@@ -6837,19 +6848,19 @@
         <v>29</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R63" s="3">
         <v>27565</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="T63" s="2" t="s">
         <v>31</v>
@@ -6860,10 +6871,10 @@
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>24</v>
@@ -6875,16 +6886,16 @@
         <v>54</v>
       </c>
       <c r="F64" s="3">
-        <v>62.633277800000002</v>
+        <v>62.634222200000004</v>
       </c>
       <c r="G64" s="3">
-        <v>-160.2066389</v>
+        <v>-160.21219439999999</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>109</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="J64" s="4">
         <v>42890.807141203702</v>
@@ -6896,13 +6907,13 @@
         <v>29</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="R64" s="3">
         <v>0</v>
@@ -6919,10 +6930,10 @@
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>34</v>
@@ -6931,43 +6942,43 @@
         <v>145</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="F65" s="3">
-        <v>61.918638899999998</v>
+        <v>61.918633</v>
       </c>
       <c r="G65" s="3">
-        <v>-158.0816667</v>
+        <v>-158.08166700000001</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>109</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J65" s="4">
         <v>42890.795763888898</v>
       </c>
       <c r="K65" s="3">
-        <v>2675</v>
+        <v>2736</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="R65" s="3">
-        <v>816852</v>
+        <v>1000872</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="T65" s="2" t="s">
         <v>31</v>
@@ -6978,10 +6989,10 @@
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>34</v>
@@ -7014,19 +7025,19 @@
         <v>29</v>
       </c>
       <c r="M66" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="R66" s="3">
+        <v>262021</v>
+      </c>
+      <c r="S66" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="N66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O66" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="R66" s="3">
-        <v>158338</v>
-      </c>
-      <c r="S66" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="T66" s="2" t="s">
         <v>31</v>
@@ -7037,10 +7048,10 @@
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>34</v>
@@ -7073,13 +7084,13 @@
         <v>29</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R67" s="3">
         <v>5278</v>
@@ -7096,10 +7107,10 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>34</v>
@@ -7126,7 +7137,7 @@
         <v>42890.624768518501</v>
       </c>
       <c r="K68" s="3">
-        <v>12123</v>
+        <v>12945</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>29</v>
@@ -7138,7 +7149,7 @@
         <v>31</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="R68" s="3">
         <v>15164</v>
@@ -7155,10 +7166,10 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>34</v>
@@ -7197,7 +7208,7 @@
         <v>31</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q69" s="4">
         <v>42895.617361111101</v>
@@ -7217,10 +7228,10 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>34</v>
@@ -7259,7 +7270,7 @@
         <v>31</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q70" s="4">
         <v>42890.612962963001</v>
@@ -7279,10 +7290,10 @@
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>34</v>
@@ -7291,7 +7302,7 @@
         <v>145</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F71" s="3">
         <v>63.114866999999997</v>
@@ -7315,13 +7326,16 @@
         <v>29</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
+      </c>
+      <c r="P71" s="4">
+        <v>42898.8586574074</v>
       </c>
       <c r="R71" s="3">
         <v>189614</v>
@@ -7338,10 +7352,10 @@
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>34</v>
@@ -7350,13 +7364,13 @@
         <v>145</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F72" s="3">
-        <v>61.180166700000001</v>
+        <v>61.180166999999997</v>
       </c>
       <c r="G72" s="3">
-        <v>-161.5976666</v>
+        <v>-161.597667</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>80</v>
@@ -7374,13 +7388,13 @@
         <v>29</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R72" s="3">
         <v>665</v>
@@ -7397,10 +7411,10 @@
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>34</v>
@@ -7439,7 +7453,7 @@
         <v>31</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q73" s="4">
         <v>42892.797071759298</v>
@@ -7459,10 +7473,10 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>34</v>
@@ -7471,13 +7485,13 @@
         <v>145</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F74" s="3">
-        <v>61.230166699999998</v>
+        <v>61.230167000000002</v>
       </c>
       <c r="G74" s="3">
-        <v>-161.45516670000001</v>
+        <v>-161.45516699999999</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>80</v>
@@ -7495,13 +7509,13 @@
         <v>29</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R74" s="3">
         <v>7212</v>
@@ -7518,10 +7532,10 @@
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>34</v>
@@ -7542,7 +7556,7 @@
         <v>109</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J75" s="4">
         <v>42890.441006944398</v>
@@ -7554,13 +7568,13 @@
         <v>55</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P75" s="4">
         <v>42890.483738425901</v>
@@ -7583,7 +7597,7 @@
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>60</v>
@@ -7592,7 +7606,7 @@
         <v>34</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>44</v>
@@ -7607,7 +7621,7 @@
         <v>27</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J76" s="4">
         <v>42889.7974189815</v>
@@ -7625,7 +7639,7 @@
         <v>31</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q76" s="4">
         <v>42889.826689814799</v>
@@ -7645,10 +7659,10 @@
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>24</v>
@@ -7681,13 +7695,13 @@
         <v>29</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R77" s="3">
         <v>0</v>
@@ -7704,7 +7718,7 @@
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>33</v>
@@ -7740,13 +7754,13 @@
         <v>37</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="R78" s="3">
         <v>0</v>
@@ -7763,10 +7777,10 @@
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>66</v>
@@ -7805,7 +7819,7 @@
         <v>70</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="P79" s="4">
         <v>42889.678888888899</v>
@@ -7828,10 +7842,10 @@
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>34</v>
@@ -7840,13 +7854,13 @@
         <v>145</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F80" s="3">
-        <v>59.559166699999999</v>
+        <v>59.559167000000002</v>
       </c>
       <c r="G80" s="3">
-        <v>-158.1238333</v>
+        <v>-158.12383299999999</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>27</v>
@@ -7864,13 +7878,13 @@
         <v>29</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="R80" s="3">
         <v>16723</v>
@@ -7887,10 +7901,10 @@
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>34</v>
@@ -7929,7 +7943,7 @@
         <v>31</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P81" s="4">
         <v>42889.831469907404</v>
@@ -7952,10 +7966,10 @@
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>34</v>
@@ -7994,7 +8008,7 @@
         <v>31</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P82" s="4">
         <v>42889.557754629597</v>
@@ -8017,16 +8031,16 @@
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>26</v>
@@ -8038,10 +8052,10 @@
         <v>-146.49833330000001</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J83" s="4">
         <v>42888.684131944399</v>
@@ -8053,7 +8067,7 @@
         <v>55</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>31</v>
@@ -8076,10 +8090,10 @@
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -8091,10 +8105,10 @@
         <v>44</v>
       </c>
       <c r="F84" s="3">
-        <v>61.631349999999998</v>
+        <v>61.622267000000001</v>
       </c>
       <c r="G84" s="3">
-        <v>-149.443387</v>
+        <v>-149.43683300000001</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>97</v>
@@ -8118,7 +8132,7 @@
         <v>31</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P84" s="4">
         <v>42888.661377314798</v>
@@ -8130,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="S84" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="T84" s="2" t="s">
         <v>31</v>
@@ -8141,10 +8155,10 @@
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>34</v>
@@ -8183,7 +8197,7 @@
         <v>31</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q85" s="4">
         <v>42888.589942129598</v>
@@ -8203,10 +8217,10 @@
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>34</v>
@@ -8245,7 +8259,7 @@
         <v>31</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q86" s="4">
         <v>42888.524166666699</v>
@@ -8265,10 +8279,10 @@
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>34</v>
@@ -8307,7 +8321,7 @@
         <v>31</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P87" s="4">
         <v>42887.8117824074</v>
@@ -8330,10 +8344,10 @@
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>34</v>
@@ -8354,7 +8368,7 @@
         <v>109</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J88" s="4">
         <v>42886.812743055598</v>
@@ -8366,13 +8380,13 @@
         <v>55</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P88" s="4">
         <v>42887.520833333299</v>
@@ -8395,16 +8409,16 @@
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>26</v>
@@ -8416,10 +8430,10 @@
         <v>-147.44049999999999</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J89" s="4">
         <v>42887.578275462998</v>
@@ -8431,13 +8445,13 @@
         <v>55</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -8454,10 +8468,10 @@
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>34</v>
@@ -8466,13 +8480,13 @@
         <v>35</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
       <c r="F90" s="3">
-        <v>63.527732999999998</v>
+        <v>63.527722199999999</v>
       </c>
       <c r="G90" s="3">
-        <v>-143.91688300000001</v>
+        <v>-143.9168889</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>27</v>
@@ -8490,19 +8504,19 @@
         <v>55</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="R90" s="3">
         <v>0</v>
       </c>
       <c r="S90" s="2" t="s">
-        <v>297</v>
+        <v>77</v>
       </c>
       <c r="T90" s="2" t="s">
         <v>31</v>
@@ -8513,16 +8527,16 @@
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>44</v>
@@ -8549,13 +8563,13 @@
         <v>55</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P91" s="4">
         <v>42886.660046296303</v>
@@ -8578,10 +8592,10 @@
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>34</v>
@@ -8620,7 +8634,7 @@
         <v>31</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q92" s="4">
         <v>42890.510451388902</v>
@@ -8640,16 +8654,16 @@
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>26</v>
@@ -8661,10 +8675,10 @@
         <v>-147.6103334</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J93" s="4">
         <v>42886.541631944398</v>
@@ -8676,7 +8690,7 @@
         <v>55</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>31</v>
@@ -8705,10 +8719,10 @@
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>34</v>
@@ -8747,7 +8761,7 @@
         <v>31</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="Q94" s="4">
         <v>42878.743564814802</v>
@@ -8767,7 +8781,7 @@
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>60</v>
@@ -8803,13 +8817,13 @@
         <v>37</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="R95" s="3">
         <v>0</v>
@@ -8826,10 +8840,10 @@
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>34</v>
@@ -8862,13 +8876,13 @@
         <v>55</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q96" s="4">
         <v>42888.508657407401</v>
@@ -8888,10 +8902,10 @@
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>34</v>
@@ -8924,13 +8938,13 @@
         <v>55</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P97" s="4">
         <v>42884.494490740697</v>
@@ -8953,19 +8967,19 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F98" s="3">
         <v>55.434722200000003</v>
@@ -8977,7 +8991,7 @@
         <v>66</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J98" s="4">
         <v>42882.895833333299</v>
@@ -8989,10 +9003,10 @@
         <v>55</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>31</v>
@@ -9018,10 +9032,10 @@
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>34</v>
@@ -9054,13 +9068,13 @@
         <v>55</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P99" s="4">
         <v>42882.526261574101</v>
@@ -9083,16 +9097,16 @@
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>68</v>
@@ -9104,10 +9118,10 @@
         <v>-147.66527780000001</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J100" s="4">
         <v>42881.771087963003</v>
@@ -9119,7 +9133,7 @@
         <v>55</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>31</v>
@@ -9148,10 +9162,10 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>34</v>
@@ -9190,7 +9204,7 @@
         <v>31</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P101" s="4">
         <v>42881.686701388899</v>
@@ -9213,10 +9227,10 @@
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>34</v>
@@ -9255,7 +9269,7 @@
         <v>31</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P102" s="4">
         <v>42879.796481481499</v>
@@ -9278,16 +9292,16 @@
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>44</v>
@@ -9299,10 +9313,10 @@
         <v>-145.35348300000001</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J103" s="4">
         <v>42879.632731481499</v>
@@ -9314,13 +9328,13 @@
         <v>55</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="P103" s="4">
         <v>42879.750034722201</v>
@@ -9343,10 +9357,10 @@
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>34</v>
@@ -9379,13 +9393,13 @@
         <v>55</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P104" s="4">
         <v>42878.7491435185</v>
@@ -9408,16 +9422,16 @@
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>26</v>
@@ -9429,10 +9443,10 @@
         <v>-146.3136389</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J105" s="4">
         <v>42877.715972222199</v>
@@ -9444,7 +9458,7 @@
         <v>55</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>31</v>
@@ -9467,10 +9481,10 @@
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>34</v>
@@ -9509,7 +9523,7 @@
         <v>31</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P106" s="4">
         <v>42877.3674537037</v>
@@ -9532,16 +9546,16 @@
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>26</v>
@@ -9553,10 +9567,10 @@
         <v>-151.59944440000001</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J107" s="4">
         <v>42876.539976851898</v>
@@ -9568,7 +9582,7 @@
         <v>29</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>31</v>
@@ -9591,10 +9605,10 @@
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>34</v>
@@ -9633,7 +9647,7 @@
         <v>31</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P108" s="4">
         <v>42875.891273148103</v>
@@ -9656,10 +9670,10 @@
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>34</v>
@@ -9698,7 +9712,7 @@
         <v>31</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P109" s="4">
         <v>42874.868055555598</v>
@@ -9721,10 +9735,10 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>34</v>
@@ -9763,7 +9777,7 @@
         <v>31</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P110" s="4">
         <v>42875.046875</v>
@@ -9786,10 +9800,10 @@
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>34</v>
@@ -9828,7 +9842,7 @@
         <v>31</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P111" s="4">
         <v>42874.492974537003</v>
@@ -9851,10 +9865,10 @@
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>34</v>
@@ -9893,7 +9907,7 @@
         <v>31</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P112" s="4">
         <v>42873.785636574103</v>
@@ -9916,19 +9930,19 @@
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F113" s="3">
         <v>62.688333</v>
@@ -9940,7 +9954,7 @@
         <v>27</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="J113" s="4">
         <v>42872.906365740702</v>
@@ -9958,7 +9972,7 @@
         <v>31</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P113" s="4">
         <v>42872.948587963001</v>
@@ -9981,16 +9995,16 @@
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>26</v>
@@ -10005,7 +10019,7 @@
         <v>137</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J114" s="4">
         <v>42873.360335648104</v>
@@ -10017,7 +10031,7 @@
         <v>37</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>31</v>
@@ -10040,16 +10054,16 @@
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>26</v>
@@ -10061,10 +10075,10 @@
         <v>-146.58716659999999</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J115" s="4">
         <v>42872.793576388904</v>
@@ -10076,7 +10090,7 @@
         <v>55</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>31</v>
@@ -10099,16 +10113,16 @@
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>26</v>
@@ -10120,10 +10134,10 @@
         <v>-146.57266670000001</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J116" s="4">
         <v>42872.797754629602</v>
@@ -10135,7 +10149,7 @@
         <v>55</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>31</v>
@@ -10164,16 +10178,16 @@
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>26</v>
@@ -10185,10 +10199,10 @@
         <v>-146.5528333</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J117" s="4">
         <v>42872.723969907398</v>
@@ -10200,7 +10214,7 @@
         <v>55</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>31</v>
@@ -10229,10 +10243,10 @@
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>34</v>
@@ -10250,10 +10264,10 @@
         <v>-155.59311700000001</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J118" s="4">
         <v>42872.616574074098</v>
@@ -10265,13 +10279,13 @@
         <v>55</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P118" s="4">
         <v>42872.732557870397</v>
@@ -10294,10 +10308,10 @@
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>34</v>
@@ -10330,13 +10344,13 @@
         <v>55</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q119" s="4">
         <v>42880.475162037001</v>
@@ -10356,16 +10370,16 @@
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>26</v>
@@ -10377,10 +10391,10 @@
         <v>-147.60638890000001</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J120" s="4">
         <v>42872.362418981502</v>
@@ -10392,7 +10406,7 @@
         <v>55</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>31</v>
@@ -10421,10 +10435,10 @@
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>34</v>
@@ -10463,7 +10477,7 @@
         <v>31</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P121" s="4">
         <v>42871.750324074099</v>
@@ -10486,10 +10500,10 @@
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>34</v>
@@ -10528,7 +10542,7 @@
         <v>31</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P122" s="4">
         <v>42871.8366087963</v>
@@ -10551,16 +10565,16 @@
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>44</v>
@@ -10593,7 +10607,7 @@
         <v>31</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="P123" s="4">
         <v>42872.5554976852</v>
@@ -10616,10 +10630,10 @@
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>34</v>
@@ -10637,10 +10651,10 @@
         <v>-155.55978300000001</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J124" s="4">
         <v>42871.690613425897</v>
@@ -10652,13 +10666,13 @@
         <v>55</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P124" s="4">
         <v>42874.626469907402</v>
@@ -10681,16 +10695,16 @@
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>26</v>
@@ -10702,10 +10716,10 @@
         <v>-147.60638890000001</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J125" s="4">
         <v>42871.655138888898</v>
@@ -10717,7 +10731,7 @@
         <v>55</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>31</v>
@@ -10746,16 +10760,16 @@
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>44</v>
@@ -10788,7 +10802,7 @@
         <v>31</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="P126" s="4">
         <v>42873.745219907403</v>
@@ -10811,16 +10825,16 @@
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>44</v>
@@ -10853,7 +10867,7 @@
         <v>31</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P127" s="4">
         <v>42874.625208333302</v>
@@ -10876,16 +10890,16 @@
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>26</v>
@@ -10897,10 +10911,10 @@
         <v>-146.56216670000001</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J128" s="4">
         <v>42871.517013888901</v>
@@ -10912,7 +10926,7 @@
         <v>55</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>31</v>
@@ -10941,10 +10955,10 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>34</v>
@@ -10977,13 +10991,13 @@
         <v>55</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="P129" s="4">
         <v>42869.790162037003</v>
@@ -11006,10 +11020,10 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>34</v>
@@ -11048,7 +11062,7 @@
         <v>31</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="R130" s="3">
         <v>1500</v>
@@ -11065,16 +11079,16 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>26</v>
@@ -11086,10 +11100,10 @@
         <v>-147.65833330000001</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J131" s="4">
         <v>42868.609432870398</v>
@@ -11101,7 +11115,7 @@
         <v>55</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>31</v>
@@ -11130,10 +11144,10 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>24</v>
@@ -11166,7 +11180,7 @@
         <v>29</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>31</v>
@@ -11195,10 +11209,10 @@
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>34</v>
@@ -11237,7 +11251,7 @@
         <v>31</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P133" s="4">
         <v>42867.999525462998</v>
@@ -11260,16 +11274,16 @@
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>54</v>
@@ -11281,10 +11295,10 @@
         <v>-145.5938889</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J134" s="4">
         <v>42866.622835648202</v>
@@ -11296,7 +11310,7 @@
         <v>55</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>31</v>
@@ -11325,16 +11339,16 @@
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>54</v>
@@ -11346,10 +11360,10 @@
         <v>-145.5938889</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J135" s="4">
         <v>42866.573414351798</v>
@@ -11361,7 +11375,7 @@
         <v>55</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>31</v>
@@ -11390,16 +11404,16 @@
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>54</v>
@@ -11411,10 +11425,10 @@
         <v>-145.59055549999999</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J136" s="4">
         <v>42866.4927314815</v>
@@ -11426,7 +11440,7 @@
         <v>55</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>31</v>
@@ -11455,10 +11469,10 @@
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>34</v>
@@ -11491,13 +11505,13 @@
         <v>55</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P137" s="4">
         <v>42866.671481481499</v>
@@ -11520,16 +11534,16 @@
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>26</v>
@@ -11541,10 +11555,10 @@
         <v>-147.65833330000001</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J138" s="4">
         <v>42866.605462963002</v>
@@ -11556,7 +11570,7 @@
         <v>55</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>31</v>
@@ -11585,10 +11599,10 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>34</v>
@@ -11621,13 +11635,13 @@
         <v>55</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="P139" s="4">
         <v>42866.624618055597</v>
@@ -11650,16 +11664,16 @@
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>26</v>
@@ -11671,10 +11685,10 @@
         <v>-147.65899999999999</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J140" s="4">
         <v>42866.573402777802</v>
@@ -11686,7 +11700,7 @@
         <v>55</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>31</v>
@@ -11715,16 +11729,16 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>26</v>
@@ -11736,10 +11750,10 @@
         <v>-147.65899999999999</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J141" s="4">
         <v>42866.555787037003</v>
@@ -11751,7 +11765,7 @@
         <v>55</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>31</v>
@@ -11780,16 +11794,16 @@
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>26</v>
@@ -11801,10 +11815,10 @@
         <v>-147.65888889999999</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J142" s="4">
         <v>42866.535289351901</v>
@@ -11816,7 +11830,7 @@
         <v>55</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>31</v>
@@ -11845,16 +11859,16 @@
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>26</v>
@@ -11866,10 +11880,10 @@
         <v>-147.65888889999999</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J143" s="4">
         <v>42866.512604166703</v>
@@ -11881,7 +11895,7 @@
         <v>55</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>31</v>
@@ -11910,10 +11924,10 @@
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>34</v>
@@ -11922,7 +11936,7 @@
         <v>182</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="F144" s="3">
         <v>57.553533000000002</v>
@@ -11952,7 +11966,7 @@
         <v>31</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P144" s="4">
         <v>42868.560763888898</v>
@@ -11975,10 +11989,10 @@
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>34</v>
@@ -12011,13 +12025,13 @@
         <v>55</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="P145" s="4">
         <v>42865.736111111102</v>
@@ -12040,16 +12054,16 @@
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>26</v>
@@ -12061,10 +12075,10 @@
         <v>-147.65899999999999</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J146" s="4">
         <v>42865.426736111098</v>
@@ -12076,7 +12090,7 @@
         <v>55</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>31</v>
@@ -12105,16 +12119,16 @@
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>26</v>
@@ -12126,10 +12140,10 @@
         <v>-147.65566659999999</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J147" s="4">
         <v>42865.651863425897</v>
@@ -12141,7 +12155,7 @@
         <v>55</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>31</v>
@@ -12170,10 +12184,10 @@
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>34</v>
@@ -12206,13 +12220,13 @@
         <v>55</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="P148" s="4">
         <v>42865.688194444403</v>
@@ -12235,16 +12249,16 @@
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>26</v>
@@ -12256,10 +12270,10 @@
         <v>-146.4797222</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J149" s="4">
         <v>42864.8811921296</v>
@@ -12271,7 +12285,7 @@
         <v>55</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N149" s="2" t="s">
         <v>31</v>
@@ -12300,10 +12314,10 @@
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>34</v>
@@ -12342,7 +12356,7 @@
         <v>31</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="P150" s="4">
         <v>42864.671504629601</v>
@@ -12365,10 +12379,10 @@
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>34</v>
@@ -12407,7 +12421,7 @@
         <v>31</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="P151" s="4">
         <v>42863.911018518498</v>
@@ -12430,10 +12444,10 @@
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>34</v>
@@ -12466,13 +12480,13 @@
         <v>55</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N152" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P152" s="4">
         <v>42863.795949074098</v>
@@ -12495,16 +12509,16 @@
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>26</v>
@@ -12516,10 +12530,10 @@
         <v>-147.6116667</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J153" s="4">
         <v>42863.666747685202</v>
@@ -12531,7 +12545,7 @@
         <v>55</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N153" s="2" t="s">
         <v>31</v>
@@ -12560,16 +12574,16 @@
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>26</v>
@@ -12581,10 +12595,10 @@
         <v>-147.61000000000001</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J154" s="4">
         <v>42863.632037037001</v>
@@ -12596,7 +12610,7 @@
         <v>55</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N154" s="2" t="s">
         <v>31</v>
@@ -12625,16 +12639,16 @@
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>26</v>
@@ -12646,10 +12660,10 @@
         <v>-147.60833339999999</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J155" s="4">
         <v>42863.5945601852</v>
@@ -12661,7 +12675,7 @@
         <v>55</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N155" s="2" t="s">
         <v>31</v>
@@ -12690,16 +12704,16 @@
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>26</v>
@@ -12711,10 +12725,10 @@
         <v>-147.61000000000001</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J156" s="4">
         <v>42863.567592592597</v>
@@ -12726,7 +12740,7 @@
         <v>55</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="N156" s="2" t="s">
         <v>31</v>
@@ -12755,10 +12769,10 @@
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>34</v>
@@ -12797,7 +12811,7 @@
         <v>31</v>
       </c>
       <c r="O157" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P157" s="4">
         <v>42862.8847916667</v>
@@ -12820,16 +12834,16 @@
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>26</v>
@@ -12841,10 +12855,10 @@
         <v>-146.55850000000001</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J158" s="4">
         <v>42862.595856481501</v>
@@ -12856,7 +12870,7 @@
         <v>55</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N158" s="2" t="s">
         <v>31</v>
@@ -12885,10 +12899,10 @@
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>34</v>
@@ -12921,13 +12935,13 @@
         <v>55</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N159" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O159" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P159" s="4">
         <v>42861.767256944397</v>
@@ -12950,10 +12964,10 @@
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>34</v>
@@ -12992,7 +13006,7 @@
         <v>31</v>
       </c>
       <c r="O160" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="P160" s="4">
         <v>42861.7276388889</v>
@@ -13015,16 +13029,16 @@
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>26</v>
@@ -13036,10 +13050,10 @@
         <v>-147.65899999999999</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J161" s="4">
         <v>42861.479537036997</v>
@@ -13051,7 +13065,7 @@
         <v>55</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N161" s="2" t="s">
         <v>31</v>
@@ -13080,10 +13094,10 @@
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>34</v>
@@ -13116,13 +13130,13 @@
         <v>55</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N162" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O162" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="P162" s="4">
         <v>42861.524502314802</v>
@@ -13145,10 +13159,10 @@
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>34</v>
@@ -13181,13 +13195,13 @@
         <v>55</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N163" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O163" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="P163" s="4">
         <v>42860.695034722201</v>
@@ -13210,10 +13224,10 @@
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>34</v>
@@ -13231,10 +13245,10 @@
         <v>-149.79175000000001</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="J164" s="4">
         <v>42860.629861111098</v>
@@ -13246,13 +13260,13 @@
         <v>55</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="O164" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="P164" s="4">
         <v>42861.460694444402</v>
@@ -13275,10 +13289,10 @@
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>34</v>
@@ -13317,7 +13331,7 @@
         <v>31</v>
       </c>
       <c r="O165" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P165" s="4">
         <v>42862.799247685201</v>
@@ -13340,10 +13354,10 @@
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>34</v>
@@ -13382,7 +13396,7 @@
         <v>31</v>
       </c>
       <c r="O166" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="P166" s="4">
         <v>42860.526111111103</v>
@@ -13405,16 +13419,16 @@
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>54</v>
@@ -13426,10 +13440,10 @@
         <v>-145.6081389</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J167" s="4">
         <v>42858.8612615741</v>
@@ -13441,7 +13455,7 @@
         <v>55</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N167" s="2" t="s">
         <v>31</v>
@@ -13470,10 +13484,10 @@
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>34</v>
@@ -13512,7 +13526,7 @@
         <v>31</v>
       </c>
       <c r="O168" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="P168" s="4">
         <v>42858.833946759303</v>
@@ -13535,10 +13549,10 @@
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>34</v>
@@ -13571,13 +13585,13 @@
         <v>55</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N169" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O169" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P169" s="4">
         <v>42858.837071759299</v>
@@ -13600,10 +13614,10 @@
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>34</v>
@@ -13636,13 +13650,13 @@
         <v>55</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="N170" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P170" s="4">
         <v>42858.643125000002</v>
@@ -13665,10 +13679,10 @@
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>34</v>
@@ -13707,7 +13721,7 @@
         <v>31</v>
       </c>
       <c r="O171" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P171" s="4">
         <v>42857.823414351798</v>
@@ -13730,10 +13744,10 @@
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>34</v>
@@ -13772,7 +13786,7 @@
         <v>31</v>
       </c>
       <c r="O172" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Q172" s="4">
         <v>42857.683275463001</v>
@@ -13792,10 +13806,10 @@
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>34</v>
@@ -13834,7 +13848,7 @@
         <v>31</v>
       </c>
       <c r="O173" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="P173" s="4">
         <v>42858.652118055601</v>
@@ -13857,10 +13871,10 @@
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>34</v>
@@ -13881,7 +13895,7 @@
         <v>183</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J174" s="4">
         <v>42856.7335648148</v>
@@ -13893,13 +13907,13 @@
         <v>55</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N174" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="P174" s="4">
         <v>42856.7441666667</v>
@@ -13922,10 +13936,10 @@
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>24</v>
@@ -13946,7 +13960,7 @@
         <v>109</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="J175" s="4">
         <v>42855.727476851898</v>
@@ -13958,7 +13972,7 @@
         <v>55</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N175" s="2" t="s">
         <v>31</v>
@@ -13984,10 +13998,10 @@
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>34</v>
@@ -14020,13 +14034,13 @@
         <v>55</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="N176" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="P176" s="4">
         <v>42855.875069444402</v>
@@ -14049,10 +14063,10 @@
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>66</v>
@@ -14091,7 +14105,7 @@
         <v>70</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="P177" s="4">
         <v>42854.559328703697</v>
@@ -14114,10 +14128,10 @@
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>34</v>
@@ -14138,7 +14152,7 @@
         <v>109</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J178" s="4">
         <v>42852.919826388897</v>
@@ -14150,13 +14164,13 @@
         <v>55</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="N178" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="P178" s="4">
         <v>42854.395601851902</v>
@@ -14179,16 +14193,16 @@
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>54</v>
@@ -14200,10 +14214,10 @@
         <v>-145.7833334</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J179" s="4">
         <v>42852.333344907398</v>
@@ -14215,7 +14229,7 @@
         <v>55</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="N179" s="2" t="s">
         <v>31</v>
@@ -14244,16 +14258,16 @@
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>54</v>
@@ -14265,10 +14279,10 @@
         <v>-145.5940555</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J180" s="4">
         <v>42851.715266203697</v>
@@ -14280,13 +14294,13 @@
         <v>55</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="N180" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O180" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="P180" s="4">
         <v>42873.500335648103</v>
@@ -14309,16 +14323,16 @@
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>54</v>
@@ -14330,10 +14344,10 @@
         <v>-145.60841669999999</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J181" s="4">
         <v>42851.534074074101</v>
@@ -14345,7 +14359,7 @@
         <v>55</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="N181" s="2" t="s">
         <v>31</v>
@@ -14374,10 +14388,10 @@
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>34</v>
@@ -14416,7 +14430,7 @@
         <v>31</v>
       </c>
       <c r="O182" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P182" s="4">
         <v>42851.529467592598</v>
@@ -14439,16 +14453,16 @@
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>54</v>
@@ -14460,10 +14474,10 @@
         <v>-145.59836110000001</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J183" s="4">
         <v>42850.639745370398</v>
@@ -14475,13 +14489,13 @@
         <v>55</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="N183" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O183" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="P183" s="4">
         <v>42850.677592592598</v>
@@ -14504,10 +14518,10 @@
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>34</v>
@@ -14546,7 +14560,7 @@
         <v>31</v>
       </c>
       <c r="O184" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="P184" s="4">
         <v>42850.667650463001</v>
@@ -14569,16 +14583,16 @@
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>105</v>
@@ -14590,10 +14604,10 @@
         <v>-134.60499999999999</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J185" s="4">
         <v>42848.733333333301</v>
@@ -14605,13 +14619,13 @@
         <v>55</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="O185" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="P185" s="4">
         <v>42849.384722222203</v>
@@ -14631,16 +14645,16 @@
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>54</v>
@@ -14652,10 +14666,10 @@
         <v>-145.66666670000001</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J186" s="4">
         <v>42849.5871990741</v>
@@ -14667,7 +14681,7 @@
         <v>55</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>31</v>
@@ -14696,10 +14710,10 @@
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>34</v>
@@ -14738,7 +14752,7 @@
         <v>31</v>
       </c>
       <c r="O187" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="P187" s="4">
         <v>42849.651354166701</v>
@@ -14761,10 +14775,10 @@
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>34</v>
@@ -14803,7 +14817,7 @@
         <v>31</v>
       </c>
       <c r="O188" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="P188" s="4">
         <v>42849.4123958333</v>
@@ -14826,10 +14840,10 @@
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>34</v>
@@ -14868,7 +14882,7 @@
         <v>31</v>
       </c>
       <c r="O189" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="P189" s="4">
         <v>42848.748935185198</v>
@@ -14891,10 +14905,10 @@
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>34</v>
@@ -14933,7 +14947,7 @@
         <v>31</v>
       </c>
       <c r="O190" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="Q190" s="4">
         <v>42848.4617476852</v>
@@ -14953,16 +14967,16 @@
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>26</v>
@@ -14974,10 +14988,10 @@
         <v>-147.6127778</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J191" s="4">
         <v>42848.416863425897</v>
@@ -14989,7 +15003,7 @@
         <v>55</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N191" s="2" t="s">
         <v>31</v>
@@ -15018,10 +15032,10 @@
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>34</v>
@@ -15042,7 +15056,7 @@
         <v>109</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J192" s="4">
         <v>42847.598113425898</v>
@@ -15054,13 +15068,13 @@
         <v>55</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="N192" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O192" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="P192" s="4">
         <v>42847.721331018503</v>
@@ -15083,10 +15097,10 @@
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>34</v>
@@ -15125,7 +15139,7 @@
         <v>31</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="P193" s="4">
         <v>42847.637152777803</v>
@@ -15148,16 +15162,16 @@
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>26</v>
@@ -15169,10 +15183,10 @@
         <v>-147.6</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J194" s="4">
         <v>42847.4926388889</v>
@@ -15184,7 +15198,7 @@
         <v>55</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="N194" s="2" t="s">
         <v>31</v>
@@ -15210,16 +15224,16 @@
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>68</v>
@@ -15252,7 +15266,7 @@
         <v>31</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P195" s="4">
         <v>42846.498194444401</v>
@@ -15275,10 +15289,10 @@
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>34</v>
@@ -15317,7 +15331,7 @@
         <v>31</v>
       </c>
       <c r="O196" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="R196" s="3">
         <v>1500</v>
@@ -15334,10 +15348,10 @@
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>34</v>
@@ -15376,7 +15390,7 @@
         <v>31</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="P197" s="4">
         <v>42845.857997685198</v>
@@ -15399,10 +15413,10 @@
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>34</v>
@@ -15441,7 +15455,7 @@
         <v>31</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P198" s="4">
         <v>42845.709016203698</v>
@@ -15464,10 +15478,10 @@
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>34</v>
@@ -15506,7 +15520,7 @@
         <v>31</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="P199" s="4">
         <v>42845.660277777803</v>
@@ -15529,10 +15543,10 @@
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>34</v>
@@ -15571,7 +15585,7 @@
         <v>31</v>
       </c>
       <c r="O200" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="P200" s="4">
         <v>42845.666840277801</v>
@@ -15594,10 +15608,10 @@
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>34</v>
@@ -15636,7 +15650,7 @@
         <v>31</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="P201" s="4">
         <v>42845.643310185202</v>
@@ -15659,10 +15673,10 @@
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>34</v>
@@ -15701,7 +15715,7 @@
         <v>31</v>
       </c>
       <c r="O202" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="P202" s="4">
         <v>42845.598611111098</v>
@@ -15724,10 +15738,10 @@
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>34</v>
@@ -15766,7 +15780,7 @@
         <v>31</v>
       </c>
       <c r="O203" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="P203" s="4">
         <v>42844.763877314799</v>
@@ -15789,10 +15803,10 @@
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>34</v>
@@ -15831,7 +15845,7 @@
         <v>31</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="P204" s="4">
         <v>42844.555972222202</v>
@@ -15854,16 +15868,16 @@
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>68</v>
@@ -15896,7 +15910,7 @@
         <v>31</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="P205" s="4">
         <v>42842.687870370399</v>
@@ -15919,10 +15933,10 @@
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>34</v>
@@ -15955,13 +15969,13 @@
         <v>55</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="N206" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="P206" s="4">
         <v>42844.601180555597</v>
@@ -15984,10 +15998,10 @@
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>34</v>
@@ -16026,7 +16040,7 @@
         <v>31</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="P207" s="4">
         <v>42843.646759259304</v>
@@ -16049,10 +16063,10 @@
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>24</v>
@@ -16073,7 +16087,7 @@
         <v>80</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J208" s="4">
         <v>42843.465949074103</v>
@@ -16085,7 +16099,7 @@
         <v>55</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="N208" s="2" t="s">
         <v>31</v>
@@ -16114,10 +16128,10 @@
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>34</v>
@@ -16156,7 +16170,7 @@
         <v>31</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="P209" s="4">
         <v>42841.666574074101</v>
@@ -16179,16 +16193,16 @@
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>105</v>
@@ -16215,13 +16229,13 @@
         <v>55</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="P210" s="4">
         <v>42838.6784722222</v>
@@ -16241,10 +16255,10 @@
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>34</v>
@@ -16283,7 +16297,7 @@
         <v>31</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="P211" s="4">
         <v>42839.421909722201</v>
@@ -16306,16 +16320,16 @@
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>54</v>
@@ -16327,10 +16341,10 @@
         <v>-145.6047222</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J212" s="4">
         <v>42839.400648148097</v>
@@ -16342,7 +16356,7 @@
         <v>55</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="N212" s="2" t="s">
         <v>31</v>
@@ -16371,10 +16385,10 @@
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>34</v>
@@ -16413,7 +16427,7 @@
         <v>31</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="Q213" s="4">
         <v>42839.345127314802</v>
@@ -16433,16 +16447,16 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>54</v>
@@ -16457,7 +16471,7 @@
         <v>183</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J214" s="4">
         <v>42835.612997685203</v>
@@ -16472,7 +16486,7 @@
         <v>31</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>31</v>
@@ -16492,16 +16506,16 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>54</v>
@@ -16516,7 +16530,7 @@
         <v>66</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="J215" s="4">
         <v>42835.568414351903</v>
@@ -16531,7 +16545,7 @@
         <v>31</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>31</v>
@@ -16551,10 +16565,10 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>34</v>
@@ -16593,7 +16607,7 @@
         <v>31</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="R216" s="3">
         <v>2000</v>
@@ -16610,16 +16624,16 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>105</v>
@@ -16631,10 +16645,10 @@
         <v>-134.374167</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="J217" s="4">
         <v>42835.614583333299</v>
@@ -16646,13 +16660,13 @@
         <v>55</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="P217" s="4">
         <v>42835.662499999999</v>
@@ -16672,10 +16686,10 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>34</v>
@@ -16714,7 +16728,7 @@
         <v>31</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="R218" s="3">
         <v>0</v>
@@ -16731,10 +16745,10 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>34</v>
@@ -16773,7 +16787,7 @@
         <v>31</v>
       </c>
       <c r="O219" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="P219" s="4">
         <v>42832.5792013889</v>
@@ -16796,16 +16810,16 @@
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>68</v>
@@ -16838,7 +16852,7 @@
         <v>31</v>
       </c>
       <c r="O220" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="P220" s="4">
         <v>42825.493148148104</v>
@@ -16861,10 +16875,10 @@
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>34</v>
@@ -16903,7 +16917,7 @@
         <v>31</v>
       </c>
       <c r="O221" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="P221" s="4">
         <v>42819.5005439815</v>
@@ -16926,10 +16940,10 @@
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>34</v>
@@ -16968,7 +16982,7 @@
         <v>31</v>
       </c>
       <c r="O222" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="P222" s="4">
         <v>42808.439351851899</v>
@@ -16991,10 +17005,10 @@
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>34</v>
@@ -17015,7 +17029,7 @@
         <v>109</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J223" s="4">
         <v>42801.577615740702</v>
@@ -17027,13 +17041,13 @@
         <v>55</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N223" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O223" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="P223" s="4">
         <v>42801.577777777798</v>
@@ -17056,10 +17070,10 @@
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>34</v>
@@ -17098,7 +17112,7 @@
         <v>31</v>
       </c>
       <c r="O224" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="P224" s="4">
         <v>42858.467384259297</v>
@@ -17121,19 +17135,19 @@
     </row>
     <row r="225" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F225" s="3">
         <v>65.029805600000003</v>
@@ -17157,7 +17171,7 @@
         <v>29</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="N225" s="2" t="s">
         <v>31</v>
@@ -17172,266 +17186,9 @@
         <v>31</v>
       </c>
       <c r="T225" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="U225" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="3">
-        <v>64.108999999999995</v>
-      </c>
-      <c r="G1" s="3">
-        <v>-157.54416670000001</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="4">
-        <v>42896.910590277803</v>
-      </c>
-      <c r="K1" s="3">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" s="3">
-        <v>0</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3">
-        <v>64.194000000000003</v>
-      </c>
-      <c r="G2" s="3">
-        <v>-144.45383330000001</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="4">
-        <v>42896.705925925897</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="3">
-        <v>734</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="3">
-        <v>65.287027800000004</v>
-      </c>
-      <c r="G3" s="3">
-        <v>-146.5577778</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4">
-        <v>42896.701446759304</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" s="3">
-        <v>112510</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="3">
-        <v>60.409833300000003</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-149.36866670000001</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="4">
-        <v>42896.418298611097</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="4">
-        <v>42896.4297337963</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>42896.431828703702</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="2" t="s">
         <v>31</v>
       </c>
     </row>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4705,7 +4705,7 @@
         <v>42940.825370370403</v>
       </c>
       <c r="K2" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>30</v>
@@ -5030,7 +5030,7 @@
         <v>42938.723807870403</v>
       </c>
       <c r="K7" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>30</v>
@@ -5148,7 +5148,7 @@
         <v>42937.751145833303</v>
       </c>
       <c r="K9" s="3">
-        <v>1029.8</v>
+        <v>2500</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>30</v>
@@ -5529,7 +5529,7 @@
         <v>42936.406620370399</v>
       </c>
       <c r="K15" s="3">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>30</v>
@@ -6179,7 +6179,7 @@
         <v>42939.375173611101</v>
       </c>
       <c r="S25" s="3">
-        <v>233630</v>
+        <v>270140</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>32</v>
@@ -6282,7 +6282,7 @@
         <v>42931.781018518501</v>
       </c>
       <c r="K27" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>30</v>
@@ -6527,7 +6527,7 @@
         <v>42930.735462962999</v>
       </c>
       <c r="K31" s="3">
-        <v>2661.4</v>
+        <v>2837.2</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>30</v>
@@ -6654,7 +6654,7 @@
         <v>42930.5701736111</v>
       </c>
       <c r="K33" s="3">
-        <v>24672.400000000001</v>
+        <v>48747.4</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>30</v>
@@ -6669,7 +6669,7 @@
         <v>181</v>
       </c>
       <c r="S33" s="3">
-        <v>126027</v>
+        <v>143552</v>
       </c>
       <c r="T33" s="2" t="s">
         <v>32</v>
@@ -7002,10 +7002,10 @@
         <v>27</v>
       </c>
       <c r="F39" s="3">
-        <v>69.071027799999996</v>
+        <v>69.080555599999997</v>
       </c>
       <c r="G39" s="3">
-        <v>-150.74669449999999</v>
+        <v>-150.74555559999999</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>110</v>
@@ -9064,7 +9064,7 @@
         <v>42919.589953703697</v>
       </c>
       <c r="K71" s="3">
-        <v>72600.7</v>
+        <v>75561.5</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>30</v>
@@ -9079,7 +9079,7 @@
         <v>32</v>
       </c>
       <c r="S71" s="3">
-        <v>61449</v>
+        <v>73243</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>32</v>
@@ -10697,8 +10697,17 @@
       <c r="O96" s="2" t="s">
         <v>414</v>
       </c>
+      <c r="P96" s="4">
+        <v>42941.8129513889</v>
+      </c>
+      <c r="Q96" s="4">
+        <v>42941.8129513889</v>
+      </c>
+      <c r="R96" s="4">
+        <v>42941.812939814801</v>
+      </c>
       <c r="S96" s="3">
-        <v>101341</v>
+        <v>104744</v>
       </c>
       <c r="T96" s="2" t="s">
         <v>32</v>
@@ -10946,7 +10955,7 @@
         <v>42912.718333333301</v>
       </c>
       <c r="K100" s="3">
-        <v>84918.8</v>
+        <v>89369.600000000006</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>30</v>
@@ -11466,7 +11475,7 @@
         <v>42909.712361111102</v>
       </c>
       <c r="K108" s="3">
-        <v>23700.6</v>
+        <v>23873.9</v>
       </c>
       <c r="L108" s="2" t="s">
         <v>30</v>
@@ -11744,7 +11753,7 @@
         <v>32</v>
       </c>
       <c r="S112" s="3">
-        <v>124581</v>
+        <v>151251</v>
       </c>
       <c r="T112" s="2" t="s">
         <v>32</v>
@@ -15008,6 +15017,9 @@
       <c r="Q162" s="4">
         <v>42895.833611111098</v>
       </c>
+      <c r="R162" s="4">
+        <v>42938.715752314798</v>
+      </c>
       <c r="S162" s="3">
         <v>0</v>
       </c>
@@ -16117,10 +16129,10 @@
         <v>42898.833368055602</v>
       </c>
       <c r="R179" s="4">
-        <v>42923.535451388903</v>
+        <v>42923.536840277797</v>
       </c>
       <c r="S179" s="3">
-        <v>5396</v>
+        <v>53696</v>
       </c>
       <c r="T179" s="2" t="s">
         <v>32</v>
@@ -16519,7 +16531,7 @@
         <v>742</v>
       </c>
       <c r="S185" s="3">
-        <v>237299</v>
+        <v>261168</v>
       </c>
       <c r="T185" s="2" t="s">
         <v>32</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -866,7 +866,7 @@
         <v>42946.7929976852</v>
       </c>
       <c r="K4" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>42946.4823148148</v>
       </c>
       <c r="K5" s="5">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         <v>42936.4066203704</v>
       </c>
       <c r="K23" s="5">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" s="4" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         <v>42933.6992476852</v>
       </c>
       <c r="K31" s="5">
-        <v>16.6</v>
+        <v>14.2</v>
       </c>
       <c r="L31" s="4" t="inlineStr">
         <is>
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="S41" s="5">
-        <v>301794</v>
+        <v>323688</v>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         <v>42922.6433912037</v>
       </c>
       <c r="K63" s="5">
-        <v>233.3</v>
+        <v>280</v>
       </c>
       <c r="L63" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -669,14 +669,14 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F2" s="5">
         <v>59.7155</v>
       </c>
       <c r="G2" s="5">
-        <v>-151.007333</v>
+        <v>-151.0073333</v>
       </c>
       <c r="H2" s="4" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>42950.6258912037</v>
       </c>
       <c r="K2" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>Full</t>
         </is>
       </c>
       <c r="F4" s="5">
@@ -882,7 +882,7 @@
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>CGF-7378</t>
         </is>
       </c>
       <c r="P4" s="6">
@@ -4159,7 +4159,7 @@
         </is>
       </c>
       <c r="S40" s="5">
-        <v>30776</v>
+        <v>41171</v>
       </c>
       <c r="T40" s="4" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>42919.5679166667</v>
       </c>
       <c r="S138" s="5">
-        <v>99026</v>
+        <v>7212</v>
       </c>
       <c r="T138" s="4" t="inlineStr">
         <is>
@@ -20713,7 +20713,7 @@
         <v>42904.5838657407</v>
       </c>
       <c r="S218" s="5">
-        <v>1365539</v>
+        <v>1731590</v>
       </c>
       <c r="T218" s="4" t="inlineStr">
         <is>
@@ -20800,7 +20800,7 @@
         </is>
       </c>
       <c r="S219" s="5">
-        <v>614012</v>
+        <v>315300</v>
       </c>
       <c r="T219" s="4" t="inlineStr">
         <is>
@@ -20974,7 +20974,7 @@
         </is>
       </c>
       <c r="S221" s="5">
-        <v>18042</v>
+        <v>18591</v>
       </c>
       <c r="T221" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4843,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
@@ -4982,8 +4982,14 @@
       <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="P2" s="4">
+        <v>42958.835694444402</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>42959.572303240697</v>
+      </c>
       <c r="S2" s="3">
-        <v>10890</v>
+        <v>28580</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>31</v>
@@ -5104,7 +5110,7 @@
         <v>42958.8382291667</v>
       </c>
       <c r="S4" s="3">
-        <v>138865</v>
+        <v>157378</v>
       </c>
       <c r="T4" s="2" t="s">
         <v>50</v>
@@ -5650,13 +5656,13 @@
         <v>44</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F13" s="3">
-        <v>62.617449999999998</v>
+        <v>62.617444499999998</v>
       </c>
       <c r="G13" s="3">
-        <v>-144.61926700000001</v>
+        <v>-144.61924999999999</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>53</v>
@@ -5686,7 +5692,7 @@
         <v>42954.918842592597</v>
       </c>
       <c r="S13" s="3">
-        <v>771090</v>
+        <v>804338</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>97</v>
@@ -6495,7 +6501,7 @@
         <v>42940.825370370403</v>
       </c>
       <c r="K26" s="3">
-        <v>1489</v>
+        <v>1484.4</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>47</v>
@@ -7635,10 +7641,10 @@
         <v>220</v>
       </c>
       <c r="F44" s="3">
-        <v>65.911333299999995</v>
+        <v>65.912472199999996</v>
       </c>
       <c r="G44" s="3">
-        <v>-143.26966669999999</v>
+        <v>-143.2654167</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>76</v>
@@ -9162,7 +9168,7 @@
         <v>42925.364641203698</v>
       </c>
       <c r="K68" s="3">
-        <v>34699.800000000003</v>
+        <v>40795.5</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>47</v>
@@ -10905,7 +10911,7 @@
         <v>42919.589953703697</v>
       </c>
       <c r="K95" s="3">
-        <v>78919.7</v>
+        <v>78790.100000000006</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>47</v>
@@ -12802,7 +12808,7 @@
         <v>42912.718333333301</v>
       </c>
       <c r="K124" s="3">
-        <v>94273.2</v>
+        <v>93740.1</v>
       </c>
       <c r="L124" s="2" t="s">
         <v>47</v>
@@ -13322,7 +13328,7 @@
         <v>42909.712361111102</v>
       </c>
       <c r="K132" s="3">
-        <v>23873.9</v>
+        <v>23964.3</v>
       </c>
       <c r="L132" s="2" t="s">
         <v>47</v>
@@ -13585,7 +13591,7 @@
         <v>42907.817696759303</v>
       </c>
       <c r="K136" s="3">
-        <v>2851.9</v>
+        <v>2877.5</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>47</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -180,6 +180,9 @@
     <t>.5 Tok Cut-Off</t>
   </si>
   <si>
+    <t>Critical</t>
+  </si>
+  <si>
     <t>ANCSA</t>
   </si>
   <si>
@@ -214,9 +217,6 @@
   </si>
   <si>
     <t>False Alarm #13</t>
-  </si>
-  <si>
-    <t>Critical</t>
   </si>
   <si>
     <t>711387</t>
@@ -4843,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W391"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G73" workbookViewId="0">
       <selection activeCell="K89" sqref="K89"/>
     </sheetView>
   </sheetViews>
@@ -5136,19 +5136,19 @@
         <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F5" s="3">
-        <v>62.288972200000003</v>
+        <v>62.288983000000002</v>
       </c>
       <c r="G5" s="3">
-        <v>-145.33947219999999</v>
+        <v>-145.339483</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" s="4">
         <v>42957.012233796297</v>
@@ -5160,13 +5160,13 @@
         <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P5" s="4">
         <v>42957.675821759301</v>
@@ -5174,8 +5174,11 @@
       <c r="Q5" s="4">
         <v>42957.676331018498</v>
       </c>
+      <c r="R5" s="4">
+        <v>42960.625324074099</v>
+      </c>
       <c r="S5" s="3">
-        <v>6065</v>
+        <v>6202</v>
       </c>
       <c r="T5" s="2" t="s">
         <v>50</v>
@@ -5189,10 +5192,10 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
@@ -5201,7 +5204,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3">
         <v>64.571833299999994</v>
@@ -5213,7 +5216,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="4">
         <v>42955.783009259299</v>
@@ -5225,13 +5228,13 @@
         <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P6" s="4">
         <v>42956.343414351897</v>
@@ -5257,10 +5260,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>25</v>
@@ -5269,7 +5272,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3">
         <v>64.749771999999993</v>
@@ -5520,7 +5523,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3">
         <v>61.526533000000001</v>
@@ -5597,10 +5600,10 @@
         <v>-148.79495700000001</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="4">
         <v>42953.764432870397</v>
@@ -5665,10 +5668,10 @@
         <v>-144.61924999999999</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J13" s="4">
         <v>42951.626747685201</v>
@@ -5692,7 +5695,7 @@
         <v>42954.918842592597</v>
       </c>
       <c r="S13" s="3">
-        <v>804338</v>
+        <v>837586</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>97</v>
@@ -5718,7 +5721,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3">
         <v>59.715499999999999</v>
@@ -5777,7 +5780,7 @@
         <v>103</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3">
         <v>59.086111099999997</v>
@@ -5789,7 +5792,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4">
         <v>42949.518750000003</v>
@@ -6217,7 +6220,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3">
         <v>65.187861100000006</v>
@@ -6282,7 +6285,7 @@
         <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F23" s="3">
         <v>61.713532999999998</v>
@@ -6418,7 +6421,7 @@
         <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F25" s="3">
         <v>59.463267000000002</v>
@@ -6427,7 +6430,7 @@
         <v>-151.53456700000001</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>148</v>
@@ -6675,7 +6678,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F29" s="3">
         <v>64.916421999999997</v>
@@ -6867,7 +6870,7 @@
         <v>174</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32" s="3">
         <v>64.636527799999996</v>
@@ -6876,7 +6879,7 @@
         <v>-156.66333330000001</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>175</v>
@@ -6985,7 +6988,7 @@
         <v>36</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3">
         <v>66.430805500000005</v>
@@ -6994,7 +6997,7 @@
         <v>-146.8511111</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>182</v>
@@ -7248,7 +7251,7 @@
         <v>69</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F38" s="3">
         <v>61.441766999999999</v>
@@ -7434,7 +7437,7 @@
         <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41" s="3">
         <v>63.955388900000003</v>
@@ -7570,7 +7573,7 @@
         <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3">
         <v>60.468555600000002</v>
@@ -7954,7 +7957,7 @@
         <v>189</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="3">
         <v>66.965000000000003</v>
@@ -7963,7 +7966,7 @@
         <v>-151.28</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>241</v>
@@ -8385,7 +8388,7 @@
         <v>189</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F56" s="3">
         <v>66.969916600000005</v>
@@ -8394,7 +8397,7 @@
         <v>-151.6166111</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>269</v>
@@ -8695,7 +8698,7 @@
         <v>-144.316667</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>292</v>
@@ -8748,7 +8751,7 @@
         <v>69</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F62" s="3">
         <v>61.544899999999998</v>
@@ -8958,7 +8961,7 @@
         <v>-142.28716700000001</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>308</v>
@@ -9017,7 +9020,7 @@
         <v>69</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66" s="3">
         <v>61.505333299999997</v>
@@ -9209,7 +9212,7 @@
         <v>26</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F69" s="3">
         <v>64.218890999999999</v>
@@ -9348,7 +9351,7 @@
         <v>-143.67333339999999</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>241</v>
@@ -9416,7 +9419,7 @@
         <v>-146.85075000000001</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>241</v>
@@ -9726,7 +9729,7 @@
         <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77" s="3">
         <v>60.466666699999998</v>
@@ -9865,7 +9868,7 @@
         <v>-143.56883329999999</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>241</v>
@@ -10033,7 +10036,7 @@
         <v>69</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F82" s="3">
         <v>62.054944399999997</v>
@@ -10228,7 +10231,7 @@
         <v>36</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85" s="3">
         <v>66.411111099999999</v>
@@ -10237,7 +10240,7 @@
         <v>-147.6177778</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>182</v>
@@ -10373,10 +10376,10 @@
         <v>-145.428167</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J87" s="4">
         <v>42921.460104166697</v>
@@ -10630,7 +10633,7 @@
         <v>69</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F91" s="3">
         <v>61.516047</v>
@@ -10769,7 +10772,7 @@
         <v>-150.16333330000001</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>241</v>
@@ -11416,7 +11419,7 @@
         <v>36</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F103" s="3">
         <v>67.97</v>
@@ -11425,7 +11428,7 @@
         <v>-145.16999999999999</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>440</v>
@@ -11552,7 +11555,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F105" s="3">
         <v>62.029482999999999</v>
@@ -12586,7 +12589,7 @@
         <v>109</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F121" s="3">
         <v>60.920833399999999</v>
@@ -12654,7 +12657,7 @@
         <v>256</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F122" s="3">
         <v>61.870333000000002</v>
@@ -12722,7 +12725,7 @@
         <v>26</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F123" s="3">
         <v>64.794117999999997</v>
@@ -12858,7 +12861,7 @@
         <v>-167.075908</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>524</v>
@@ -13115,7 +13118,7 @@
         <v>26</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F129" s="3">
         <v>65.033388900000006</v>
@@ -13824,7 +13827,7 @@
         <v>-152.98388890000001</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>579</v>
@@ -13960,10 +13963,10 @@
         <v>-144.94072220000001</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J142" s="4">
         <v>42905.722199074102</v>
@@ -14728,7 +14731,7 @@
         <v>174</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F154" s="3">
         <v>63.530833299999998</v>
@@ -14737,7 +14740,7 @@
         <v>-162.30133330000001</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>633</v>
@@ -15000,7 +15003,7 @@
         <v>174</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F158" s="3">
         <v>63.172499999999999</v>
@@ -15910,7 +15913,7 @@
         <v>26</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F172" s="3">
         <v>65.287027800000004</v>
@@ -16102,7 +16105,7 @@
         <v>26</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F175" s="3">
         <v>64.324166700000006</v>
@@ -16634,7 +16637,7 @@
         <v>26</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F183" s="3">
         <v>64.668361099999998</v>
@@ -16702,7 +16705,7 @@
         <v>159</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F184" s="3">
         <v>62.929499999999997</v>
@@ -16711,10 +16714,10 @@
         <v>-143.79705000000001</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J184" s="4">
         <v>42894.608194444401</v>
@@ -16770,7 +16773,7 @@
         <v>174</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F185" s="3">
         <v>62.1606667</v>
@@ -16779,7 +16782,7 @@
         <v>-163.16908330000001</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>746</v>
@@ -16838,7 +16841,7 @@
         <v>174</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F186" s="3">
         <v>62.264666699999999</v>
@@ -16847,7 +16850,7 @@
         <v>-163.02099999999999</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>746</v>
@@ -16906,7 +16909,7 @@
         <v>26</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F187" s="3">
         <v>63.906555500000003</v>
@@ -16918,7 +16921,7 @@
         <v>28</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J187" s="4">
         <v>42894.4980208333</v>
@@ -17299,7 +17302,7 @@
         <v>-144.56979999999999</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>241</v>
@@ -17361,7 +17364,7 @@
         <v>-144.61063300000001</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>241</v>
@@ -17686,7 +17689,7 @@
         <v>174</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F199" s="3">
         <v>64.842472200000003</v>
@@ -17754,7 +17757,7 @@
         <v>174</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F200" s="3">
         <v>63.155944499999997</v>
@@ -17822,7 +17825,7 @@
         <v>174</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F201" s="3">
         <v>63.189166700000001</v>
@@ -17831,7 +17834,7 @@
         <v>-162.22766669999999</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>633</v>
@@ -17949,7 +17952,7 @@
         <v>174</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F203" s="3">
         <v>63.220277799999998</v>
@@ -18085,7 +18088,7 @@
         <v>174</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F205" s="3">
         <v>63.273333299999997</v>
@@ -18153,7 +18156,7 @@
         <v>174</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F206" s="3">
         <v>63.404166699999998</v>
@@ -18162,7 +18165,7 @@
         <v>-161.73699999999999</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>817</v>
@@ -18221,7 +18224,7 @@
         <v>174</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F207" s="3">
         <v>63.376833300000001</v>
@@ -18366,7 +18369,7 @@
         <v>-158.24222219999999</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>241</v>
@@ -18484,7 +18487,7 @@
         <v>174</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F211" s="3">
         <v>63.404166699999998</v>
@@ -18691,7 +18694,7 @@
         <v>174</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F214" s="3">
         <v>64.830749999999995</v>
@@ -19353,7 +19356,7 @@
         <v>159</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F224" s="3">
         <v>63.134444500000001</v>
@@ -19362,7 +19365,7 @@
         <v>-142.5254722</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>308</v>
@@ -19418,7 +19421,7 @@
         <v>-161.08683199999999</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>886</v>
@@ -19557,7 +19560,7 @@
         <v>28</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J227" s="4">
         <v>42891.529120370396</v>
@@ -19749,7 +19752,7 @@
         <v>174</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F230" s="3">
         <v>62.634222200000004</v>
@@ -19758,7 +19761,7 @@
         <v>-160.21219439999999</v>
       </c>
       <c r="H230" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>905</v>
@@ -19820,7 +19823,7 @@
         <v>-158.08166700000001</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>911</v>
@@ -20349,7 +20352,7 @@
         <v>26</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F239" s="3">
         <v>64.885917000000006</v>
@@ -20479,7 +20482,7 @@
         <v>159</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F241" s="3">
         <v>63.337266999999997</v>
@@ -20488,7 +20491,7 @@
         <v>-142.98933299999999</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I241" s="2" t="s">
         <v>949</v>
@@ -20674,7 +20677,7 @@
         <v>26</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F244" s="3">
         <v>64.991666699999996</v>
@@ -20733,7 +20736,7 @@
         <v>109</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F245" s="3">
         <v>60.909777800000001</v>
@@ -21203,7 +21206,7 @@
         <v>291</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F252" s="3">
         <v>64.095567000000003</v>
@@ -21333,7 +21336,7 @@
         <v>159</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F254" s="3">
         <v>62.981250000000003</v>
@@ -21342,7 +21345,7 @@
         <v>-141.95843300000001</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>991</v>
@@ -21537,10 +21540,10 @@
         <v>-145.50794440000001</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J257" s="4">
         <v>42886.636099536998</v>
@@ -21596,7 +21599,7 @@
         <v>26</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F258" s="3">
         <v>64.890166699999995</v>
@@ -21794,7 +21797,7 @@
         <v>26</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F261" s="3">
         <v>64.662000000000006</v>
@@ -21918,7 +21921,7 @@
         <v>159</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F263" s="3">
         <v>63.295166999999999</v>
@@ -23331,7 +23334,7 @@
         <v>256</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F284" s="3">
         <v>62.948388899999998</v>
@@ -23399,7 +23402,7 @@
         <v>26</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F285" s="3">
         <v>63.938833299999999</v>
@@ -23411,7 +23414,7 @@
         <v>28</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J285" s="4">
         <v>42871.848067129598</v>
@@ -24271,7 +24274,7 @@
         <v>174</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F298" s="3">
         <v>64.8323611</v>
@@ -24280,7 +24283,7 @@
         <v>-157.09663889999999</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I298" s="2" t="s">
         <v>241</v>
@@ -24339,7 +24342,7 @@
         <v>69</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F299" s="3">
         <v>61.678972199999997</v>
@@ -24407,7 +24410,7 @@
         <v>116</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F300" s="3">
         <v>63.923888900000001</v>
@@ -24475,7 +24478,7 @@
         <v>116</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F301" s="3">
         <v>63.923888900000001</v>
@@ -24543,7 +24546,7 @@
         <v>116</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F302" s="3">
         <v>63.923888900000001</v>
@@ -24623,7 +24626,7 @@
         <v>28</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J303" s="4">
         <v>42866.623530092598</v>
@@ -25359,7 +25362,7 @@
         <v>26</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F314" s="3">
         <v>64.353667000000002</v>
@@ -26648,7 +26651,7 @@
         <v>116</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F333" s="3">
         <v>63.9281389</v>
@@ -26988,7 +26991,7 @@
         <v>26</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F338" s="3">
         <v>64.841200000000001</v>
@@ -27189,7 +27192,7 @@
         <v>174</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F341" s="3">
         <v>61.884666699999997</v>
@@ -27198,7 +27201,7 @@
         <v>-162.0864722</v>
       </c>
       <c r="H341" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I341" s="2" t="s">
         <v>1285</v>
@@ -27325,7 +27328,7 @@
         <v>109</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F343" s="3">
         <v>60.492767999999998</v>
@@ -27393,7 +27396,7 @@
         <v>75</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F344" s="3">
         <v>57.638916700000003</v>
@@ -27402,7 +27405,7 @@
         <v>-152.51969439999999</v>
       </c>
       <c r="H344" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I344" s="2" t="s">
         <v>1297</v>
@@ -27461,7 +27464,7 @@
         <v>116</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F345" s="3">
         <v>63.95</v>
@@ -27529,7 +27532,7 @@
         <v>116</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F346" s="3">
         <v>63.924083400000001</v>
@@ -27597,7 +27600,7 @@
         <v>116</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F347" s="3">
         <v>63.928194499999996</v>
@@ -27733,7 +27736,7 @@
         <v>116</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F349" s="3">
         <v>63.931888899999997</v>
@@ -27801,7 +27804,7 @@
         <v>26</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F350" s="3">
         <v>64.871767000000006</v>
@@ -27934,7 +27937,7 @@
         <v>116</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F352" s="3">
         <v>63.983333299999998</v>
@@ -28002,7 +28005,7 @@
         <v>159</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F353" s="3">
         <v>63.362050000000004</v>
@@ -28206,7 +28209,7 @@
         <v>159</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F356" s="3">
         <v>63.362032999999997</v>
@@ -28336,7 +28339,7 @@
         <v>159</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F358" s="3">
         <v>63.136333</v>
@@ -28345,7 +28348,7 @@
         <v>-142.527333</v>
       </c>
       <c r="H358" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>308</v>
@@ -28602,7 +28605,7 @@
         <v>69</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F362" s="3">
         <v>61.796555599999998</v>
@@ -28661,7 +28664,7 @@
         <v>69</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F363" s="3">
         <v>60.984527800000002</v>
@@ -29477,7 +29480,7 @@
         <v>291</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F375" s="3">
         <v>63.858361100000003</v>
@@ -29675,7 +29678,7 @@
         <v>116</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F378" s="3">
         <v>63.935000000000002</v>
@@ -29802,7 +29805,7 @@
         <v>227</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F380" s="3">
         <v>58.308361099999999</v>
@@ -29861,7 +29864,7 @@
         <v>227</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F381" s="3">
         <v>58.373472200000002</v>
@@ -29920,7 +29923,7 @@
         <v>291</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F382" s="3">
         <v>64.072999999999993</v>
@@ -30115,7 +30118,7 @@
         <v>291</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F385" s="3">
         <v>63.711027799999997</v>
@@ -30396,7 +30399,7 @@
         <v>-149.15</v>
       </c>
       <c r="H389" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>1441</v>
@@ -30455,7 +30458,7 @@
         <v>26</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F390" s="3">
         <v>64.560361099999994</v>
@@ -30532,7 +30535,7 @@
         <v>-141.25186110000001</v>
       </c>
       <c r="H391" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>241</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4894,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H86" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
       <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
@@ -7287,6 +7287,15 @@
       <c r="O37" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="P37" s="4">
+        <v>42965.389305555596</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>42965.392777777801</v>
+      </c>
+      <c r="R37" s="4">
+        <v>42965.396249999998</v>
+      </c>
       <c r="S37" s="3">
         <v>17193</v>
       </c>
@@ -12819,6 +12828,15 @@
       </c>
       <c r="O123" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="P123" s="4">
+        <v>42965.3895486111</v>
+      </c>
+      <c r="Q123" s="4">
+        <v>42965.393020833297</v>
+      </c>
+      <c r="R123" s="4">
+        <v>42965.396493055603</v>
       </c>
       <c r="S123" s="3">
         <v>13455</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4422,7 +4422,7 @@
     <t>KU13</t>
   </si>
   <si>
-    <t>{338.6}</t>
+    <t>0{338.6}</t>
   </si>
 </sst>
 </file>
@@ -4894,8 +4894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H67" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6035,13 +6035,13 @@
         <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3">
         <v>59.715499999999999</v>
       </c>
       <c r="G18" s="3">
-        <v>-151.0073333</v>
+        <v>-151.00733299999999</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
@@ -6066,6 +6066,9 @@
       </c>
       <c r="O18" s="2" t="s">
         <v>119</v>
+      </c>
+      <c r="R18" s="4">
+        <v>42968.4164930556</v>
       </c>
       <c r="S18" s="3">
         <v>3046</v>
@@ -6844,6 +6847,9 @@
       <c r="Q30" s="4">
         <v>42942.398518518501</v>
       </c>
+      <c r="R30" s="4">
+        <v>42968.4156365741</v>
+      </c>
       <c r="S30" s="3">
         <v>0</v>
       </c>
@@ -7722,7 +7728,7 @@
         <v>42936.406620370399</v>
       </c>
       <c r="K44" s="3">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>71</v>
@@ -8437,7 +8443,7 @@
         <v>42932.612164351798</v>
       </c>
       <c r="K55" s="3">
-        <v>83.3</v>
+        <v>73.3</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>71</v>
@@ -9565,7 +9571,7 @@
         <v>42925.364641203698</v>
       </c>
       <c r="K73" s="3">
-        <v>41967.3</v>
+        <v>42968.1</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>71</v>
@@ -10271,7 +10277,7 @@
         <v>42922.643391203703</v>
       </c>
       <c r="K84" s="3">
-        <v>989.5</v>
+        <v>1026.0999999999999</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>71</v>
@@ -13997,7 +14003,7 @@
         <v>42907.817696759303</v>
       </c>
       <c r="K141" s="3">
-        <v>2877.5</v>
+        <v>2942.8</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>71</v>
@@ -18784,7 +18790,7 @@
         <v>42892.753842592603</v>
       </c>
       <c r="K214" s="3">
-        <v>19733</v>
+        <v>20131.900000000001</v>
       </c>
       <c r="L214" s="2" t="s">
         <v>71</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4422,7 +4422,7 @@
     <t>KU13</t>
   </si>
   <si>
-    <t>0{338.6}</t>
+    <t>{338.6}</t>
   </si>
 </sst>
 </file>
@@ -4894,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
@@ -8242,10 +8242,10 @@
         <v>27</v>
       </c>
       <c r="F52" s="3">
-        <v>64.747166699999994</v>
+        <v>64.747638899999998</v>
       </c>
       <c r="G52" s="3">
-        <v>-152.8089167</v>
+        <v>-152.80738890000001</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>95</v>
@@ -8257,7 +8257,7 @@
         <v>42933.699247685203</v>
       </c>
       <c r="K52" s="3">
-        <v>14.2</v>
+        <v>15.4</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>71</v>
@@ -8874,7 +8874,7 @@
         <v>42930.5701736111</v>
       </c>
       <c r="K62" s="3">
-        <v>59008.6</v>
+        <v>55254.1</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>71</v>

--- a/query.xlsx
+++ b/query.xlsx
@@ -4894,7 +4894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>

--- a/query.xlsx
+++ b/query.xlsx
@@ -900,6 +900,9 @@
       <c r="P4" s="6">
         <v>42975.6300115741</v>
       </c>
+      <c r="Q4" s="6">
+        <v>42975.6300694444</v>
+      </c>
       <c r="R4" s="6">
         <v>42975.6299652778</v>
       </c>
@@ -945,14 +948,14 @@
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F5" s="5">
-        <v>63.264667</v>
+        <v>63.2646667</v>
       </c>
       <c r="G5" s="5">
-        <v>-143.116467</v>
+        <v>-143.1164722</v>
       </c>
       <c r="H5" s="4" t="inlineStr">
         <is>
@@ -997,7 +1000,7 @@
         <v>42973.5875578704</v>
       </c>
       <c r="S5" s="5">
-        <v>34675</v>
+        <v>45730</v>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
@@ -1404,14 +1407,14 @@
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>Critical</t>
         </is>
       </c>
       <c r="F10" s="5">
-        <v>61.5983055</v>
+        <v>61.598317</v>
       </c>
       <c r="G10" s="5">
-        <v>-149.3203333</v>
+        <v>-149.320333</v>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
@@ -6743,7 +6746,7 @@
         <v>42930.5701736111</v>
       </c>
       <c r="K67" s="5">
-        <v>55254.1</v>
+        <v>55273.5</v>
       </c>
       <c r="L67" s="4" t="inlineStr">
         <is>
@@ -7751,7 +7754,7 @@
         <v>42925.3646412037</v>
       </c>
       <c r="K78" s="5">
-        <v>42968.1</v>
+        <v>46714.6</v>
       </c>
       <c r="L78" s="4" t="inlineStr">
         <is>
@@ -8774,7 +8777,7 @@
         <v>42922.6433912037</v>
       </c>
       <c r="K89" s="5">
-        <v>1026.1</v>
+        <v>1117</v>
       </c>
       <c r="L89" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -11715,6 +11715,15 @@
           <t/>
         </is>
       </c>
+      <c r="P120" s="6">
+        <v>42923.5002083333</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>42923.7502083333</v>
+      </c>
+      <c r="R120" s="6">
+        <v>42924.5004513889</v>
+      </c>
       <c r="S120" s="5">
         <v>0</v>
       </c>
@@ -38333,7 +38342,7 @@
         <v>42736.001099537</v>
       </c>
       <c r="K402" s="5">
-        <v>45.2</v>
+        <v>0.1</v>
       </c>
       <c r="L402" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -3872,7 +3872,7 @@
         <v>42940.8253703704</v>
       </c>
       <c r="K36" s="5">
-        <v>1484.4</v>
+        <v>1626.9</v>
       </c>
       <c r="L36" s="4" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>42937.7511458333</v>
       </c>
       <c r="K43" s="5">
-        <v>23724.1</v>
+        <v>23819.6</v>
       </c>
       <c r="L43" s="4" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>42936.4066203704</v>
       </c>
       <c r="K49" s="5">
-        <v>193</v>
+        <v>198.8</v>
       </c>
       <c r="L49" s="4" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>42929.7187962963</v>
       </c>
       <c r="K70" s="5">
-        <v>411.2</v>
+        <v>208.5</v>
       </c>
       <c r="L70" s="4" t="inlineStr">
         <is>
@@ -38342,7 +38342,7 @@
         <v>42736.001099537</v>
       </c>
       <c r="K402" s="5">
-        <v>0.1</v>
+        <v>45.2</v>
       </c>
       <c r="L402" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -23610,14 +23610,14 @@
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>Modified</t>
+          <t>MODIFIED</t>
         </is>
       </c>
       <c r="F247" s="5">
-        <v>63.112824</v>
+        <v>63.1128333</v>
       </c>
       <c r="G247" s="5">
-        <v>-156.484298</v>
+        <v>-156.4843055</v>
       </c>
       <c r="H247" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -714,6 +714,9 @@
           <t>711402</t>
         </is>
       </c>
+      <c r="S2" s="5">
+        <v>2723</v>
+      </c>
       <c r="T2" s="4" t="inlineStr">
         <is>
           <t/>
@@ -7530,14 +7533,14 @@
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F76" s="5">
-        <v>63.027883</v>
+        <v>63.0278889</v>
       </c>
       <c r="G76" s="5">
-        <v>-142.287167</v>
+        <v>-142.2871667</v>
       </c>
       <c r="H76" s="4" t="inlineStr">
         <is>
@@ -9588,14 +9591,14 @@
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F98" s="5">
-        <v>61.925617</v>
+        <v>61.9256111</v>
       </c>
       <c r="G98" s="5">
-        <v>-145.428167</v>
+        <v>-145.4281667</v>
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
@@ -10440,14 +10443,14 @@
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F107" s="5">
-        <v>64.757317</v>
+        <v>64.7573056</v>
       </c>
       <c r="G107" s="5">
-        <v>-148.3757</v>
+        <v>-148.3756945</v>
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
@@ -12426,14 +12429,14 @@
       </c>
       <c r="E128" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F128" s="5">
-        <v>64.25645</v>
+        <v>64.2564444</v>
       </c>
       <c r="G128" s="5">
-        <v>-149.354467</v>
+        <v>-149.3544722</v>
       </c>
       <c r="H128" s="4" t="inlineStr">
         <is>
@@ -13002,14 +13005,14 @@
       </c>
       <c r="E134" s="4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F134" s="5">
-        <v>64.794118</v>
+        <v>64.7941111</v>
       </c>
       <c r="G134" s="5">
-        <v>-147.695272</v>
+        <v>-147.69525</v>
       </c>
       <c r="H134" s="4" t="inlineStr">
         <is>
@@ -13371,14 +13374,14 @@
       </c>
       <c r="E138" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F138" s="5">
-        <v>61.019074</v>
+        <v>61.0190833</v>
       </c>
       <c r="G138" s="5">
-        <v>-157.429832</v>
+        <v>-157.4298333</v>
       </c>
       <c r="H138" s="4" t="inlineStr">
         <is>
@@ -15594,14 +15597,14 @@
       </c>
       <c r="E162" s="4" t="inlineStr">
         <is>
-          <t>Modified</t>
+          <t>MODIFIED</t>
         </is>
       </c>
       <c r="F162" s="5">
         <v>61.9</v>
       </c>
       <c r="G162" s="5">
-        <v>-159.468333</v>
+        <v>-159.4683333</v>
       </c>
       <c r="H162" s="4" t="inlineStr">
         <is>
@@ -15978,11 +15981,11 @@
       </c>
       <c r="E166" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F166" s="5">
-        <v>62.090833</v>
+        <v>62.0908333</v>
       </c>
       <c r="G166" s="5">
         <v>-157.2265</v>
@@ -18696,14 +18699,14 @@
       </c>
       <c r="E195" s="4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F195" s="5">
         <v>62.9295</v>
       </c>
       <c r="G195" s="5">
-        <v>-143.79705</v>
+        <v>-143.7970278</v>
       </c>
       <c r="H195" s="4" t="inlineStr">
         <is>
@@ -19440,14 +19443,14 @@
       </c>
       <c r="E203" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F203" s="5">
-        <v>60.414167</v>
+        <v>60.4141667</v>
       </c>
       <c r="G203" s="5">
-        <v>-160.869167</v>
+        <v>-160.8691667</v>
       </c>
       <c r="H203" s="4" t="inlineStr">
         <is>
@@ -21909,14 +21912,14 @@
       </c>
       <c r="E229" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F229" s="5">
-        <v>60.481618</v>
+        <v>60.4816111</v>
       </c>
       <c r="G229" s="5">
-        <v>-160.495933</v>
+        <v>-160.4959167</v>
       </c>
       <c r="H229" s="4" t="inlineStr">
         <is>
@@ -22005,11 +22008,11 @@
       </c>
       <c r="E230" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F230" s="5">
-        <v>61.195667</v>
+        <v>61.1956667</v>
       </c>
       <c r="G230" s="5">
         <v>-161.692</v>
@@ -22197,14 +22200,14 @@
       </c>
       <c r="E232" s="4" t="inlineStr">
         <is>
-          <t>Limited</t>
+          <t>LIMITED</t>
         </is>
       </c>
       <c r="F232" s="5">
-        <v>64.03205</v>
+        <v>64.0320556</v>
       </c>
       <c r="G232" s="5">
-        <v>-148.569467</v>
+        <v>-148.5694722</v>
       </c>
       <c r="H232" s="4" t="inlineStr">
         <is>
@@ -22551,14 +22554,14 @@
       </c>
       <c r="E236" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F236" s="5">
-        <v>60.747486</v>
+        <v>60.7475</v>
       </c>
       <c r="G236" s="5">
-        <v>-161.086832</v>
+        <v>-161.0868333</v>
       </c>
       <c r="H236" s="4" t="inlineStr">
         <is>
@@ -22839,14 +22842,14 @@
       </c>
       <c r="E239" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F239" s="5">
-        <v>62.468167</v>
+        <v>62.4681667</v>
       </c>
       <c r="G239" s="5">
-        <v>-157.64295</v>
+        <v>-157.6429444</v>
       </c>
       <c r="H239" s="4" t="inlineStr">
         <is>
@@ -22935,14 +22938,14 @@
       </c>
       <c r="E240" s="4" t="inlineStr">
         <is>
-          <t>Modified</t>
+          <t>MODIFIED</t>
         </is>
       </c>
       <c r="F240" s="5">
-        <v>62.758667</v>
+        <v>62.7586667</v>
       </c>
       <c r="G240" s="5">
-        <v>-154.293667</v>
+        <v>-154.2936667</v>
       </c>
       <c r="H240" s="4" t="inlineStr">
         <is>
@@ -23508,14 +23511,14 @@
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F246" s="5">
-        <v>62.994683</v>
+        <v>62.9946945</v>
       </c>
       <c r="G246" s="5">
-        <v>-156.73234</v>
+        <v>-156.7323333</v>
       </c>
       <c r="H246" s="4" t="inlineStr">
         <is>
@@ -23694,14 +23697,14 @@
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>Modified</t>
+          <t>MODIFIED</t>
         </is>
       </c>
       <c r="F248" s="5">
-        <v>63.112824</v>
+        <v>63.1128333</v>
       </c>
       <c r="G248" s="5">
-        <v>-156.484298</v>
+        <v>-156.4843055</v>
       </c>
       <c r="H248" s="4" t="inlineStr">
         <is>
@@ -25290,14 +25293,14 @@
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F265" s="5">
         <v>62.98125</v>
       </c>
       <c r="G265" s="5">
-        <v>-141.958433</v>
+        <v>-141.9584444</v>
       </c>
       <c r="H265" s="4" t="inlineStr">
         <is>

--- a/query.xlsx
+++ b/query.xlsx
@@ -13749,14 +13749,14 @@
       </c>
       <c r="E142" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F142" s="5">
-        <v>62.644817</v>
+        <v>62.6448055</v>
       </c>
       <c r="G142" s="5">
-        <v>-141.03027</v>
+        <v>-141.0302778</v>
       </c>
       <c r="H142" s="4" t="inlineStr">
         <is>
@@ -24075,14 +24075,14 @@
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F252" s="5">
-        <v>63.337267</v>
+        <v>63.3372778</v>
       </c>
       <c r="G252" s="5">
-        <v>-142.989333</v>
+        <v>-142.9893333</v>
       </c>
       <c r="H252" s="4" t="inlineStr">
         <is>
@@ -25476,14 +25476,14 @@
       </c>
       <c r="E267" s="4" t="inlineStr">
         <is>
-          <t>Full</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F267" s="5">
-        <v>63.52735</v>
+        <v>63.5273611</v>
       </c>
       <c r="G267" s="5">
-        <v>-143.916017</v>
+        <v>-143.9160278</v>
       </c>
       <c r="H267" s="4" t="inlineStr">
         <is>
@@ -34734,14 +34734,14 @@
       </c>
       <c r="E364" s="4" t="inlineStr">
         <is>
-          <t>Critical</t>
+          <t>CRITICAL</t>
         </is>
       </c>
       <c r="F364" s="5">
-        <v>63.36205</v>
+        <v>63.3620555</v>
       </c>
       <c r="G364" s="5">
-        <v>-143.098217</v>
+        <v>-143.0982222</v>
       </c>
       <c r="H364" s="4" t="inlineStr">
         <is>
